--- a/biology/Zoologie/Échiquier_des_Balkans/Échiquier_des_Balkans.xlsx
+++ b/biology/Zoologie/Échiquier_des_Balkans/Échiquier_des_Balkans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_des_Balkans</t>
+          <t>Échiquier_des_Balkans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia larissa
 L'Échiquier des Balkans (Melanargia larissa) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Melanargia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_des_Balkans</t>
+          <t>Échiquier_des_Balkans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Melanargia larissa a été nommé par Carl Geyer en 1828.
-Noms vernaculaires
-L'Échiquier des Balkans se nomme Balkan Marbled White en anglais[1].
-Sous-espèces
-Melanargia larissa astanda (Boisduval, 1848)
-Melanargia larissa hertina Staudinger, 1901 ; en Géorgie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melanargia larissa a été nommé par Carl Geyer en 1828.
+</t>
         </is>
       </c>
     </row>
@@ -529,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_des_Balkans</t>
+          <t>Échiquier_des_Balkans</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +554,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier des Balkans se nomme Balkan Marbled White en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Melanargia larissa astanda (Boisduval, 1848)
+Melanargia larissa hertina Staudinger, 1901 ; en Géorgie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon de taille moyenne qui présente un damier noir et blanc et une suffusion basale grise.
 Le revers dessine en noir les limites des damiers. L'ocelle de l'apex des antérieures et celles en ligne aux postérieures sont bien visibles, de couleur noire pupillé de blanc.
@@ -560,81 +646,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_des_Balkans</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Balkans</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-La période de vol s'étend de mai à fin juin ou début août selon les localités, en une seule génération[2].
-Plantes hôtes
-La chenille se nourrit de graminées, des Poa[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_des_Balkans</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Balkans</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'Échiquier des Balkans est présent dans le sud-est de l’Europe, dans les Balkans, en Turquie et en Asie Mineure, jusques dans le nord-ouest de l'Iran[1].
-En Europe il est présente sur les côtes de Croatie, Serbie, Albanie, en Macédoine, Bulgarie et en Grèce (dont Corfou, Leucade, Lemnos, Lesbos et Siros.
-Biotope
-Il réside dans des lieux secs herbus et fleuris, entre O et 2150 mètres (surtout au-dessous de 1500 mètres), souvent parmi les rochers en bois clairs et les buissons.
-Protection</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_des_Balkans</t>
+          <t>Échiquier_des_Balkans</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,10 +667,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de vol s'étend de mai à fin juin ou début août selon les localités, en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de graminées, des Poa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier des Balkans est présent dans le sud-est de l’Europe, dans les Balkans, en Turquie et en Asie Mineure, jusques dans le nord-ouest de l'Iran.
+En Europe il est présente sur les côtes de Croatie, Serbie, Albanie, en Macédoine, Bulgarie et en Grèce (dont Corfou, Leucade, Lemnos, Lesbos et Siros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans des lieux secs herbus et fleuris, entre O et 2150 mètres (surtout au-dessous de 1500 mètres), souvent parmi les rochers en bois clairs et les buissons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Espèces ressemblantes en Europe occidentale et au Maghreb</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Melanargia arge -  Échiquier d'Italie, en Italie.
 Melanargia galathea  -   Demi-deuil
